--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mfge8-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mfge8-Itgb3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.12165933333333</v>
+        <v>21.83470933333334</v>
       </c>
       <c r="H2">
-        <v>45.36497799999999</v>
+        <v>65.50412800000001</v>
       </c>
       <c r="I2">
-        <v>0.1696222886509932</v>
+        <v>0.1994658397831471</v>
       </c>
       <c r="J2">
-        <v>0.1696222886509932</v>
+        <v>0.1994658397831471</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N2">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O2">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P2">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q2">
-        <v>37.52423633796711</v>
+        <v>60.25384841078044</v>
       </c>
       <c r="R2">
-        <v>337.718127041704</v>
+        <v>542.284635697024</v>
       </c>
       <c r="S2">
-        <v>0.03977759848045934</v>
+        <v>0.05134385030886057</v>
       </c>
       <c r="T2">
-        <v>0.03977759848045932</v>
+        <v>0.05134385030886056</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.12165933333333</v>
+        <v>21.83470933333334</v>
       </c>
       <c r="H3">
-        <v>45.36497799999999</v>
+        <v>65.50412800000001</v>
       </c>
       <c r="I3">
-        <v>0.1696222886509932</v>
+        <v>0.1994658397831471</v>
       </c>
       <c r="J3">
-        <v>0.1696222886509932</v>
+        <v>0.1994658397831471</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>21.735681</v>
       </c>
       <c r="O3">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P3">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q3">
-        <v>109.5598544866687</v>
+        <v>158.1974255990187</v>
       </c>
       <c r="R3">
-        <v>986.0386903800179</v>
+        <v>1423.776830391168</v>
       </c>
       <c r="S3">
-        <v>0.1161390164505172</v>
+        <v>0.1348040856050926</v>
       </c>
       <c r="T3">
-        <v>0.1161390164505171</v>
+        <v>0.1348040856050926</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.12165933333333</v>
+        <v>21.83470933333334</v>
       </c>
       <c r="H4">
-        <v>45.36497799999999</v>
+        <v>65.50412800000001</v>
       </c>
       <c r="I4">
-        <v>0.1696222886509932</v>
+        <v>0.1994658397831471</v>
       </c>
       <c r="J4">
-        <v>0.1696222886509932</v>
+        <v>0.1994658397831471</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N4">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O4">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P4">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q4">
-        <v>9.902090978481112</v>
+        <v>11.35473300755911</v>
       </c>
       <c r="R4">
-        <v>89.11881880633</v>
+        <v>102.192597068032</v>
       </c>
       <c r="S4">
-        <v>0.01049671992019915</v>
+        <v>0.009675659351459538</v>
       </c>
       <c r="T4">
-        <v>0.01049671992019915</v>
+        <v>0.009675659351459536</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.12165933333333</v>
+        <v>21.83470933333334</v>
       </c>
       <c r="H5">
-        <v>45.36497799999999</v>
+        <v>65.50412800000001</v>
       </c>
       <c r="I5">
-        <v>0.1696222886509932</v>
+        <v>0.1994658397831471</v>
       </c>
       <c r="J5">
-        <v>0.1696222886509932</v>
+        <v>0.1994658397831471</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N5">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O5">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P5">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q5">
-        <v>3.027169698068222</v>
+        <v>4.274304473201778</v>
       </c>
       <c r="R5">
-        <v>27.24452728261399</v>
+        <v>38.46874025881601</v>
       </c>
       <c r="S5">
-        <v>0.003208953799817542</v>
+        <v>0.003642244517734409</v>
       </c>
       <c r="T5">
-        <v>0.003208953799817542</v>
+        <v>0.003642244517734409</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>30.93224</v>
       </c>
       <c r="H6">
-        <v>92.79672000000001</v>
+        <v>92.79671999999999</v>
       </c>
       <c r="I6">
-        <v>0.3469723279862584</v>
+        <v>0.282574186529459</v>
       </c>
       <c r="J6">
-        <v>0.3469723279862584</v>
+        <v>0.282574186529459</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N6">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O6">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P6">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q6">
-        <v>76.75802361610668</v>
+        <v>85.35888760930665</v>
       </c>
       <c r="R6">
-        <v>690.8222125449601</v>
+        <v>768.2299884837598</v>
       </c>
       <c r="S6">
-        <v>0.08136740788155152</v>
+        <v>0.07273649839034947</v>
       </c>
       <c r="T6">
-        <v>0.0813674078815515</v>
+        <v>0.07273649839034946</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>30.93224</v>
       </c>
       <c r="H7">
-        <v>92.79672000000001</v>
+        <v>92.79671999999999</v>
       </c>
       <c r="I7">
-        <v>0.3469723279862584</v>
+        <v>0.282574186529459</v>
       </c>
       <c r="J7">
-        <v>0.3469723279862584</v>
+        <v>0.282574186529459</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>21.735681</v>
       </c>
       <c r="O7">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P7">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q7">
         <v>224.11110041848</v>
@@ -883,10 +883,10 @@
         <v>2016.99990376632</v>
       </c>
       <c r="S7">
-        <v>0.237569161625826</v>
+        <v>0.1909708192245809</v>
       </c>
       <c r="T7">
-        <v>0.2375691616258259</v>
+        <v>0.1909708192245809</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>30.93224</v>
       </c>
       <c r="H8">
-        <v>92.79672000000001</v>
+        <v>92.79671999999999</v>
       </c>
       <c r="I8">
-        <v>0.3469723279862584</v>
+        <v>0.282574186529459</v>
       </c>
       <c r="J8">
-        <v>0.3469723279862584</v>
+        <v>0.282574186529459</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N8">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O8">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P8">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q8">
-        <v>20.25530716546667</v>
+        <v>16.08573401018667</v>
       </c>
       <c r="R8">
-        <v>182.2977644892</v>
+        <v>144.77160609168</v>
       </c>
       <c r="S8">
-        <v>0.02147165549938421</v>
+        <v>0.01370706670047989</v>
       </c>
       <c r="T8">
-        <v>0.0214716554993842</v>
+        <v>0.01370706670047988</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,43 +974,43 @@
         <v>30.93224</v>
       </c>
       <c r="H9">
-        <v>92.79672000000001</v>
+        <v>92.79671999999999</v>
       </c>
       <c r="I9">
-        <v>0.3469723279862584</v>
+        <v>0.282574186529459</v>
       </c>
       <c r="J9">
-        <v>0.3469723279862584</v>
+        <v>0.282574186529459</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N9">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O9">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P9">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q9">
-        <v>6.192252950373334</v>
+        <v>6.055212816426666</v>
       </c>
       <c r="R9">
-        <v>55.73027655336</v>
+        <v>54.49691534783999</v>
       </c>
       <c r="S9">
-        <v>0.006564102979496751</v>
+        <v>0.005159802214048784</v>
       </c>
       <c r="T9">
-        <v>0.00656410297949675</v>
+        <v>0.005159802214048783</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>38.64755633333333</v>
+        <v>47.70664233333334</v>
       </c>
       <c r="H10">
-        <v>115.942669</v>
+        <v>143.119927</v>
       </c>
       <c r="I10">
-        <v>0.4335163761808628</v>
+        <v>0.435812784634851</v>
       </c>
       <c r="J10">
-        <v>0.4335163761808628</v>
+        <v>0.435812784634851</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N10">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O10">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P10">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q10">
-        <v>95.90349880056579</v>
+        <v>131.6485945133101</v>
       </c>
       <c r="R10">
-        <v>863.1314892050922</v>
+        <v>1184.837350619791</v>
       </c>
       <c r="S10">
-        <v>0.1016625850504061</v>
+        <v>0.1121811454096916</v>
       </c>
       <c r="T10">
-        <v>0.1016625850504061</v>
+        <v>0.1121811454096916</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>38.64755633333333</v>
+        <v>47.70664233333334</v>
       </c>
       <c r="H11">
-        <v>115.942669</v>
+        <v>143.119927</v>
       </c>
       <c r="I11">
-        <v>0.4335163761808628</v>
+        <v>0.435812784634851</v>
       </c>
       <c r="J11">
-        <v>0.4335163761808628</v>
+        <v>0.435812784634851</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>21.735681</v>
       </c>
       <c r="O11">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P11">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q11">
-        <v>280.0103186302877</v>
+        <v>345.6454531128097</v>
       </c>
       <c r="R11">
-        <v>2520.092867672589</v>
+        <v>3110.809078015287</v>
       </c>
       <c r="S11">
-        <v>0.2968251751892809</v>
+        <v>0.2945333596548695</v>
       </c>
       <c r="T11">
-        <v>0.2968251751892808</v>
+        <v>0.2945333596548695</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>38.64755633333333</v>
+        <v>47.70664233333334</v>
       </c>
       <c r="H12">
-        <v>115.942669</v>
+        <v>143.119927</v>
       </c>
       <c r="I12">
-        <v>0.4335163761808628</v>
+        <v>0.435812784634851</v>
       </c>
       <c r="J12">
-        <v>0.4335163761808628</v>
+        <v>0.435812784634851</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N12">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O12">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P12">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q12">
-        <v>25.30751490116278</v>
+        <v>24.80894882145979</v>
       </c>
       <c r="R12">
-        <v>227.7676341104651</v>
+        <v>223.280539393138</v>
       </c>
       <c r="S12">
-        <v>0.02682725258443545</v>
+        <v>0.02114034187368705</v>
       </c>
       <c r="T12">
-        <v>0.02682725258443544</v>
+        <v>0.02114034187368705</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>38.64755633333333</v>
+        <v>47.70664233333334</v>
       </c>
       <c r="H13">
-        <v>115.942669</v>
+        <v>143.119927</v>
       </c>
       <c r="I13">
-        <v>0.4335163761808628</v>
+        <v>0.435812784634851</v>
       </c>
       <c r="J13">
-        <v>0.4335163761808628</v>
+        <v>0.435812784634851</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N13">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O13">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P13">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q13">
-        <v>7.736764124738555</v>
+        <v>9.338925085460446</v>
       </c>
       <c r="R13">
-        <v>69.63087712264701</v>
+        <v>84.05032576914401</v>
       </c>
       <c r="S13">
-        <v>0.00820136335674047</v>
+        <v>0.007957937696602859</v>
       </c>
       <c r="T13">
-        <v>0.008201363356740468</v>
+        <v>0.007957937696602859</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.447555666666666</v>
+        <v>8.992316666666666</v>
       </c>
       <c r="H14">
-        <v>13.342667</v>
+        <v>26.97695</v>
       </c>
       <c r="I14">
-        <v>0.04988900718188559</v>
+        <v>0.08214718905254291</v>
       </c>
       <c r="J14">
-        <v>0.04988900718188558</v>
+        <v>0.08214718905254291</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N14">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O14">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P14">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q14">
-        <v>11.03656194623956</v>
+        <v>24.81469650103888</v>
       </c>
       <c r="R14">
-        <v>99.329057516156</v>
+        <v>223.33226850935</v>
       </c>
       <c r="S14">
-        <v>0.01169931682948187</v>
+        <v>0.02114523961893845</v>
       </c>
       <c r="T14">
-        <v>0.01169931682948187</v>
+        <v>0.02114523961893845</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.447555666666666</v>
+        <v>8.992316666666666</v>
       </c>
       <c r="H15">
-        <v>13.342667</v>
+        <v>26.97695</v>
       </c>
       <c r="I15">
-        <v>0.04988900718188559</v>
+        <v>0.08214718905254291</v>
       </c>
       <c r="J15">
-        <v>0.04988900718188558</v>
+        <v>0.08214718905254291</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>21.735681</v>
       </c>
       <c r="O15">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P15">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q15">
-        <v>32.22355040013633</v>
+        <v>65.15137550588332</v>
       </c>
       <c r="R15">
-        <v>290.011953601227</v>
+        <v>586.36237955295</v>
       </c>
       <c r="S15">
-        <v>0.03415860186699028</v>
+        <v>0.05551715881423996</v>
       </c>
       <c r="T15">
-        <v>0.03415860186699027</v>
+        <v>0.05551715881423996</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.447555666666666</v>
+        <v>8.992316666666666</v>
       </c>
       <c r="H16">
-        <v>13.342667</v>
+        <v>26.97695</v>
       </c>
       <c r="I16">
-        <v>0.04988900718188559</v>
+        <v>0.08214718905254291</v>
       </c>
       <c r="J16">
-        <v>0.04988900718188558</v>
+        <v>0.08214718905254291</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N16">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O16">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P16">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q16">
-        <v>2.912385464610556</v>
+        <v>4.676286425922222</v>
       </c>
       <c r="R16">
-        <v>26.211469181495</v>
+        <v>42.0865778333</v>
       </c>
       <c r="S16">
-        <v>0.003087276676018313</v>
+        <v>0.00398478365426613</v>
       </c>
       <c r="T16">
-        <v>0.003087276676018312</v>
+        <v>0.00398478365426613</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.447555666666666</v>
+        <v>8.992316666666666</v>
       </c>
       <c r="H17">
-        <v>13.342667</v>
+        <v>26.97695</v>
       </c>
       <c r="I17">
-        <v>0.04988900718188559</v>
+        <v>0.08214718905254291</v>
       </c>
       <c r="J17">
-        <v>0.04988900718188558</v>
+        <v>0.08214718905254291</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N17">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O17">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P17">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q17">
-        <v>0.8903457912801109</v>
+        <v>1.760311931155556</v>
       </c>
       <c r="R17">
-        <v>8.013112121520999</v>
+        <v>15.8428073804</v>
       </c>
       <c r="S17">
-        <v>0.0009438118093951269</v>
+        <v>0.001500006965098371</v>
       </c>
       <c r="T17">
-        <v>0.0009438118093951268</v>
+        <v>0.001500006965098371</v>
       </c>
     </row>
   </sheetData>
